--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.042021.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.042021.xlsx_with_dialog_acts.xlsx
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3207,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4043,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4575,12 +4575,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4841,12 +4841,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5069,12 +5069,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5107,12 +5107,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5259,12 +5259,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5335,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5487,12 +5487,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5951,12 +5951,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6255,12 +6255,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6449,12 +6449,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6487,12 +6487,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6715,12 +6715,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7019,12 +7019,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7171,12 +7171,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7403,12 +7403,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7593,12 +7593,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7745,12 +7745,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8087,12 +8087,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8315,12 +8315,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8661,12 +8661,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8855,12 +8855,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8931,12 +8931,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9121,12 +9121,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9961,12 +9961,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10231,12 +10231,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10269,12 +10269,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10307,12 +10307,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10649,12 +10649,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10687,12 +10687,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11189,12 +11189,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11695,12 +11695,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11733,12 +11733,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11923,12 +11923,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12159,12 +12159,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12197,12 +12197,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12425,12 +12425,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12501,12 +12501,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12539,12 +12539,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12577,12 +12577,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12615,12 +12615,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13185,12 +13185,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13299,12 +13299,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13451,12 +13451,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13641,12 +13641,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14135,12 +14135,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14401,12 +14401,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14591,12 +14591,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14857,12 +14857,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15123,12 +15123,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15807,12 +15807,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16339,12 +16339,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16491,12 +16491,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16609,12 +16609,12 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16647,12 +16647,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16685,12 +16685,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17601,12 +17601,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17639,12 +17639,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17829,12 +17829,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17867,12 +17867,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17943,12 +17943,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18019,12 +18019,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18209,12 +18209,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18437,12 +18437,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19197,12 +19197,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19349,12 +19349,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20185,12 +20185,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20413,12 +20413,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20759,12 +20759,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21025,12 +21025,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21291,12 +21291,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21333,12 +21333,12 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21371,12 +21371,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21489,12 +21489,12 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21527,12 +21527,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21641,12 +21641,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21831,12 +21831,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21869,12 +21869,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22021,12 +22021,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22173,12 +22173,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22439,12 +22439,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22477,12 +22477,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22629,12 +22629,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22895,12 +22895,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23123,12 +23123,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23161,12 +23161,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23891,12 +23891,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23967,12 +23967,12 @@
       <c r="H617" t="inlineStr"/>
       <c r="I617" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24081,12 +24081,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24119,12 +24119,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24157,12 +24157,12 @@
       <c r="H622" t="inlineStr"/>
       <c r="I622" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24347,12 +24347,12 @@
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24499,12 +24499,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24575,12 +24575,12 @@
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24769,12 +24769,12 @@
       <c r="H638" t="inlineStr"/>
       <c r="I638" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24845,12 +24845,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25035,12 +25035,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25375,12 +25375,12 @@
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25831,12 +25831,12 @@
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26139,12 +26139,12 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26253,12 +26253,12 @@
       <c r="H677" t="inlineStr"/>
       <c r="I677" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26371,12 +26371,12 @@
       <c r="H680" t="inlineStr"/>
       <c r="I680" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27215,12 +27215,12 @@
       <c r="H702" t="inlineStr"/>
       <c r="I702" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27367,12 +27367,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27593,12 +27593,12 @@
       <c r="H712" t="inlineStr"/>
       <c r="I712" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27669,12 +27669,12 @@
       <c r="H714" t="inlineStr"/>
       <c r="I714" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28011,12 +28011,12 @@
       <c r="H723" t="inlineStr"/>
       <c r="I723" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28049,12 +28049,12 @@
       <c r="H724" t="inlineStr"/>
       <c r="I724" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28315,12 +28315,12 @@
       <c r="H731" t="inlineStr"/>
       <c r="I731" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28923,12 +28923,12 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28999,12 +28999,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29075,12 +29075,12 @@
       <c r="H751" t="inlineStr"/>
       <c r="I751" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29151,12 +29151,12 @@
       <c r="H753" t="inlineStr"/>
       <c r="I753" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29189,12 +29189,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29227,12 +29227,12 @@
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29417,12 +29417,12 @@
       <c r="H760" t="inlineStr"/>
       <c r="I760" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29987,12 +29987,12 @@
       <c r="H775" t="inlineStr"/>
       <c r="I775" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30519,12 +30519,12 @@
       <c r="H789" t="inlineStr"/>
       <c r="I789" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30557,12 +30557,12 @@
       <c r="H790" t="inlineStr"/>
       <c r="I790" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30633,12 +30633,12 @@
       <c r="H792" t="inlineStr"/>
       <c r="I792" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31051,12 +31051,12 @@
       <c r="H803" t="inlineStr"/>
       <c r="I803" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31203,12 +31203,12 @@
       <c r="H807" t="inlineStr"/>
       <c r="I807" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31739,12 +31739,12 @@
       <c r="H821" t="inlineStr"/>
       <c r="I821" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32081,12 +32081,12 @@
       <c r="H830" t="inlineStr"/>
       <c r="I830" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32195,12 +32195,12 @@
       <c r="H833" t="inlineStr"/>
       <c r="I833" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32807,12 +32807,12 @@
       <c r="H849" t="inlineStr"/>
       <c r="I849" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32997,12 +32997,12 @@
       <c r="H854" t="inlineStr"/>
       <c r="I854" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33795,12 +33795,12 @@
       <c r="H875" t="inlineStr"/>
       <c r="I875" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33985,12 +33985,12 @@
       <c r="H880" t="inlineStr"/>
       <c r="I880" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34023,12 +34023,12 @@
       <c r="H881" t="inlineStr"/>
       <c r="I881" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34213,12 +34213,12 @@
       <c r="H886" t="inlineStr"/>
       <c r="I886" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
